--- a/differences_3_0.35.xlsx
+++ b/differences_3_0.35.xlsx
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>16806.89999999999</v>
+        <v>16806</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>16806.89999999999</v>
+        <v>16806</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>6.200000000000003</v>
+        <v>6</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>5.400000000000006</v>
+        <v>5</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
